--- a/NformTester/NformTester/Keywordscripts/600.10.20.90_AlarmDescriptionIsEditable.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.10.20.90_AlarmDescriptionIsEditable.xlsx
@@ -1240,7 +1240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7718" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7720" uniqueCount="868">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3830,53 +3830,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>$SNMP_GXT_0_NAME$</t>
+    <t>Script Info</t>
+  </si>
+  <si>
+    <t>Script Data</t>
+  </si>
+  <si>
+    <t>Test Object</t>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Create Date</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Running Range</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Windows</t>
+  </si>
+  <si>
+    <t>.NET Framework</t>
+  </si>
+  <si>
+    <t>$NAME_SNMP_device_0$</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Script Info</t>
-  </si>
-  <si>
-    <t>Script Data</t>
-  </si>
-  <si>
-    <t>Test Object</t>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Version</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>Create Date</t>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Running Range</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Windows</t>
-  </si>
-  <si>
-    <t>.NET Framework</t>
+    <t>Pre-condition</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre_default</t>
   </si>
 </sst>
 </file>
@@ -4045,7 +4052,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4056,8 +4063,11 @@
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4096,10 +4106,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="4">
@@ -4423,8 +4438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4442,10 +4457,10 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>851</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>852</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>789</v>
@@ -4486,10 +4501,10 @@
     </row>
     <row r="2" spans="1:14" ht="15">
       <c r="A2" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>853</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>854</v>
       </c>
       <c r="C2" s="4">
         <v>1</v>
@@ -4510,10 +4525,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>855</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>856</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -4544,10 +4559,10 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>856</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>857</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>858</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
@@ -4574,7 +4589,7 @@
     </row>
     <row r="5" spans="1:14" ht="15">
       <c r="A5" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B5" s="8">
         <v>41743</v>
@@ -4598,10 +4613,10 @@
     </row>
     <row r="6" spans="1:14" ht="15">
       <c r="A6" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>860</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>861</v>
       </c>
       <c r="C6" s="4">
         <v>5</v>
@@ -4646,7 +4661,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="4">
@@ -4669,7 +4684,7 @@
         <v>849</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>821</v>
@@ -4684,7 +4699,7 @@
     </row>
     <row r="9" spans="1:14" ht="15">
       <c r="A9" s="2" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
@@ -4803,7 +4818,7 @@
         <v>56</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="4"/>
@@ -5028,7 +5043,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B21" s="13"/>
       <c r="C21" s="4">
@@ -5054,7 +5069,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B22" s="13"/>
       <c r="C22" s="4">
@@ -5083,6 +5098,12 @@
       <c r="N22" s="14"/>
     </row>
     <row r="23" spans="1:14">
+      <c r="A23" s="16" t="s">
+        <v>866</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>867</v>
+      </c>
       <c r="C23" s="4">
         <v>22</v>
       </c>
@@ -5321,7 +5342,7 @@
         <v>56</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="4"/>
@@ -5759,7 +5780,7 @@
         <v>56</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>850</v>
+        <v>865</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="4"/>
